--- a/example/未统计学校名单(1)(1).xlsx
+++ b/example/未统计学校名单(1)(1).xlsx
@@ -13,7 +13,7 @@
     <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet11!$A$1:$F$382</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet11!$A$1:$F$383</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -700,7 +700,7 @@
     <t>U6MBFC020009</t>
   </si>
   <si>
-    <t>上海市嘉定区新城实验中学1111111</t>
+    <t>上海市嘉定区新城实验中学</t>
   </si>
   <si>
     <t>U6EBFC020002</t>
@@ -2262,9 +2262,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -2306,45 +2306,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2375,7 +2338,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2390,15 +2361,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2421,6 +2384,43 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -2451,7 +2451,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2463,7 +2583,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2475,115 +2613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2595,37 +2625,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2656,39 +2656,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2725,6 +2692,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2738,7 +2714,31 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2765,10 +2765,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2777,133 +2777,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="25" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
@@ -8159,7 +8159,7 @@
   <dimension ref="A1:F383"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F393" sqref="F393"/>
+      <selection activeCell="F97" sqref="F97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="5"/>
@@ -9830,7 +9830,7 @@
         <v>黄晓彦</v>
       </c>
     </row>
-    <row r="93" s="1" customFormat="1" ht="16.5" hidden="1" spans="1:6">
+    <row r="93" s="1" customFormat="1" ht="16.5" spans="1:6">
       <c r="A93" s="1" t="s">
         <v>209</v>
       </c>
@@ -9851,7 +9851,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="94" s="1" customFormat="1" ht="16.5" hidden="1" spans="1:6">
+    <row r="94" s="1" customFormat="1" ht="16.5" spans="1:6">
       <c r="A94" s="1" t="s">
         <v>213</v>
       </c>
@@ -9872,7 +9872,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="95" s="1" customFormat="1" ht="16.5" hidden="1" spans="1:6">
+    <row r="95" s="1" customFormat="1" ht="16.5" spans="1:6">
       <c r="A95" s="1" t="s">
         <v>217</v>
       </c>
@@ -9893,7 +9893,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="96" s="1" customFormat="1" ht="16.5" hidden="1" spans="1:6">
+    <row r="96" s="1" customFormat="1" ht="16.5" spans="1:6">
       <c r="A96" s="1" t="s">
         <v>209</v>
       </c>
@@ -9914,7 +9914,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="97" s="1" customFormat="1" ht="16.5" hidden="1" spans="1:6">
+    <row r="97" s="1" customFormat="1" ht="16.5" spans="1:6">
       <c r="A97" s="1" t="s">
         <v>225</v>
       </c>
@@ -15065,7 +15065,7 @@
         <v>朱语晨</v>
       </c>
     </row>
-    <row r="383" spans="3:6">
+    <row r="383" hidden="1" spans="3:6">
       <c r="C383" s="2">
         <v>1</v>
       </c>
@@ -15074,20 +15074,12 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F382">
-    <filterColumn colId="3">
-      <customFilters>
-        <customFilter operator="equal" val="张宇翔"/>
-      </customFilters>
-    </filterColumn>
+  <autoFilter ref="A1:F383">
     <filterColumn colId="4">
       <customFilters>
         <customFilter operator="equal" val="金之赟"/>
       </customFilters>
     </filterColumn>
-    <sortState ref="A1:F382">
-      <sortCondition ref="E1"/>
-    </sortState>
     <extLst/>
   </autoFilter>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
